--- a/genshin/536434556214052405_2021-06-15_14-00-03.xlsx
+++ b/genshin/536434556214052405_2021-06-15_14-00-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-06-24 20:10:48</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44371.84083333334</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -607,10 +621,8 @@
           <t>4781091788</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-06-24 00:28:32</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44371.01981481481</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -670,10 +682,8 @@
           <t>4732119542</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-06-19 14:43:32</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44366.61356481481</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -737,10 +747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-06-19 14:15:50</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44366.5943287037</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -808,10 +816,8 @@
           <t>4753228672</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-06-19 10:00:26</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44366.4169675926</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -883,10 +889,8 @@
           <t>4731964908</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-06-19 00:59:38</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44366.04141203704</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -964,10 +968,8 @@
           <t>4750763250</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-06-18 21:14:32</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44365.88509259259</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1035,10 +1037,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-06-18 20:18:06</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44365.84590277778</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1102,10 +1102,8 @@
           <t>4732047713</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-06-17 18:01:22</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44364.75094907408</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1169,10 +1167,8 @@
           <t>4735684705</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-06-17 12:06:50</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44364.50474537037</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1240,10 +1236,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-06-16 21:36:43</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44363.90049768519</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1311,10 +1305,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-06-16 21:15:28</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44363.88574074074</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1382,10 +1374,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-06-16 19:50:42</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44363.826875</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1457,10 +1447,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-06-16 19:49:59</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44363.82637731481</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1532,10 +1520,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-06-16 19:46:07</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44363.82369212963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1607,10 +1593,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-06-16 19:21:37</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44363.80667824074</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1682,10 +1666,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-06-16 17:31:46</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44363.73039351852</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1753,10 +1735,8 @@
           <t>4738202745</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-06-16 16:49:34</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44363.70108796296</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1820,10 +1800,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-06-16 15:09:14</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44363.63141203704</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1895,10 +1873,8 @@
           <t>4737614725</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-06-16 14:28:19</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44363.60299768519</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1966,10 +1942,8 @@
           <t>4737430842</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:43:35</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44363.57193287037</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2029,10 +2003,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:18:11</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44363.55429398148</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2100,10 +2072,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:17:39</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44363.55392361111</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -2171,10 +2141,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:17:11</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44363.55359953704</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2242,10 +2210,8 @@
           <t>4737300578</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:16:47</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44363.55332175926</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2313,10 +2279,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:15:54</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44363.55270833334</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2384,10 +2348,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:15:18</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44363.55229166667</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2455,10 +2417,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:14:31</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44363.55174768518</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2534,10 +2494,8 @@
           <t>4734744264</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:08:00</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44363.54722222222</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2601,10 +2559,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-06-16 13:06:15</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44363.54600694445</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2668,10 +2624,8 @@
           <t>4737181140</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:56:40</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44363.53935185185</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2735,10 +2689,8 @@
           <t>4737138166</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:50:13</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44363.53487268519</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2803,10 +2755,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:44:01</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44363.53056712963</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
@@ -2870,10 +2820,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:41:33</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44363.52885416667</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2937,10 +2885,8 @@
           <t>4731964908</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:39:39</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44363.52753472222</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3004,10 +2950,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:38:53</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44363.52700231481</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3071,10 +3015,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:38:17</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44363.52658564815</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3138,10 +3080,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:34:14</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44363.52377314815</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3217,10 +3157,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:23:41</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44363.51644675926</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3292,10 +3230,8 @@
           <t>4733187032</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-06-16 12:05:38</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44363.50391203703</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3372,10 +3308,8 @@
           <t>4732829069</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:59:40</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44363.49976851852</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3447,10 +3381,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:45:35</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44363.48998842593</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3514,10 +3446,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:43:20</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44363.48842592593</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3581,10 +3511,8 @@
           <t>4736750065</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:39:36</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44363.48583333333</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3644,10 +3572,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:38:34</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44363.48511574074</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3723,10 +3649,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:35:48</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44363.48319444444</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3802,10 +3726,8 @@
           <t>4736692214</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:28:14</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44363.47793981482</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3869,10 +3791,8 @@
           <t>4736685786</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:26:45</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44363.47690972222</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3944,10 +3864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:23:11</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44363.47443287037</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4015,10 +3933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:22:46</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44363.47414351852</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4082,10 +3998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-06-16 11:09:24</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44363.46486111111</v>
       </c>
       <c r="I52" t="n">
         <v>25</v>
@@ -4161,10 +4075,8 @@
           <t>4735828582</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:54:18</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44363.454375</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4228,10 +4140,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:49:36</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44363.45111111111</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4299,10 +4209,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:46:30</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44363.44895833333</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -4371,10 +4279,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:29:22</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44363.43706018518</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4450,10 +4356,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:28:44</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44363.43662037037</v>
       </c>
       <c r="I57" t="n">
         <v>4</v>
@@ -4517,10 +4421,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:27:37</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44363.43584490741</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4588,10 +4490,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:23:49</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44363.43320601852</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -4667,10 +4567,8 @@
           <t>4736400245</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:20:57</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44363.43121527778</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4741,10 +4639,8 @@
           <t>4736387847</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:19:12</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44363.43</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4816,10 +4712,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:15:33</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44363.42746527777</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4891,10 +4785,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:12:53</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44363.42561342593</v>
       </c>
       <c r="I63" t="n">
         <v>4</v>
@@ -4962,10 +4854,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:08:53</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44363.42283564815</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5033,10 +4923,8 @@
           <t>4736331438</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:05:10</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44363.42025462963</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5108,10 +4996,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-06-16 10:00:44</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44363.41717592593</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5179,10 +5065,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:59:56</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44363.41662037037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5246,10 +5130,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:56:49</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44363.41445601852</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5317,10 +5199,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:55:15</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44363.41336805555</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5384,10 +5264,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:50:30</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44363.41006944444</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5451,10 +5329,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:47:41</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44363.40811342592</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5518,10 +5394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:42:43</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44363.40466435185</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5590,10 +5464,8 @@
           <t>4736162634</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:18:51</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44363.38809027777</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5668,10 +5540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-06-16 09:13:31</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44363.38438657407</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5731,10 +5601,8 @@
           <t>4736095754</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-06-16 08:57:20</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44363.37314814814</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5810,10 +5678,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-06-16 08:45:58</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44363.36525462963</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
@@ -5881,10 +5747,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-06-16 08:20:03</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44363.34725694444</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -5956,10 +5820,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-06-16 08:18:42</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44363.34631944444</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6031,10 +5893,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-06-16 08:15:33</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44363.34413194445</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6106,10 +5966,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-06-16 08:14:06</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44363.343125</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -6177,10 +6035,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-06-16 08:11:51</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44363.3415625</v>
       </c>
       <c r="I81" t="n">
         <v>5</v>
@@ -6248,10 +6104,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-06-16 08:11:04</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44363.34101851852</v>
       </c>
       <c r="I82" t="n">
         <v>5</v>
@@ -6319,10 +6173,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-06-16 08:03:21</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44363.33565972222</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -6386,10 +6238,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-06-16 07:45:23</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44363.32318287037</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6453,10 +6303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-06-16 07:28:47</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44363.31165509259</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6520,10 +6368,8 @@
           <t>4732829069</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-06-16 07:23:14</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44363.30780092593</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6595,10 +6441,8 @@
           <t>4735828582</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-06-16 07:10:02</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44363.29863425926</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6674,10 +6518,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-06-16 06:56:24</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44363.28916666667</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6737,10 +6579,8 @@
           <t>4735781208</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-06-16 06:32:53</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44363.27283564815</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
@@ -6812,10 +6652,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-06-16 05:48:02</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44363.24168981481</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6887,10 +6725,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-06-16 04:51:44</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44363.20259259259</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -6962,10 +6798,8 @@
           <t>4735684705</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-06-16 04:28:37</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44363.18653935185</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7033,10 +6867,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-06-16 04:23:14</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44363.18280092593</v>
       </c>
       <c r="I93" t="n">
         <v>6</v>
@@ -7100,10 +6932,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-06-16 02:53:02</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44363.12016203703</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -7175,10 +7005,8 @@
           <t>4735439564</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-06-16 02:17:04</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44363.09518518519</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7246,10 +7074,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-06-16 02:03:06</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44363.08548611111</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -7317,10 +7143,8 @@
           <t>4735303372</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:37:12</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44363.0675</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7388,10 +7212,8 @@
           <t>4735439564</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:36:17</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44363.06686342593</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7457,10 +7279,8 @@
           <t>4735439077</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:35:47</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44363.0665162037</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7524,10 +7344,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:13:36</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44363.05111111111</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -7591,10 +7409,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:08:03</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44363.04725694445</v>
       </c>
       <c r="I101" t="n">
         <v>4</v>
@@ -7658,10 +7474,8 @@
           <t>4735338302</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:05:35</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44363.04554398148</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7725,10 +7539,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:05:02</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44363.04516203704</v>
       </c>
       <c r="I103" t="n">
         <v>10</v>
@@ -7796,10 +7608,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:03:52</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44363.04435185185</v>
       </c>
       <c r="I104" t="n">
         <v>10</v>
@@ -7867,10 +7677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:02:17</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44363.04325231481</v>
       </c>
       <c r="I105" t="n">
         <v>5</v>
@@ -7936,10 +7744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-06-16 01:02:08</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44363.04314814815</v>
       </c>
       <c r="I106" t="n">
         <v>48</v>
@@ -8007,10 +7813,8 @@
           <t>4735303372</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:55:33</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44363.03857638889</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -8087,10 +7891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:38:34</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44363.02678240741</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8167,10 +7969,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:38:24</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44363.02666666666</v>
       </c>
       <c r="I109" t="n">
         <v>9</v>
@@ -8242,10 +8042,8 @@
           <t>4735225847</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:36:52</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44363.02560185185</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8321,10 +8119,8 @@
           <t>4735163055</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:30:56</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44363.02148148148</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8396,10 +8192,8 @@
           <t>4735188195</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:30:36</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44363.02125</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8471,10 +8265,8 @@
           <t>4731964908</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:28:11</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44363.01957175926</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8550,10 +8342,8 @@
           <t>4735163055</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:24:12</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44363.01680555556</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8625,10 +8415,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:23:48</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44363.01652777778</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8692,10 +8480,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:18:55</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44363.01313657407</v>
       </c>
       <c r="I116" t="n">
         <v>4</v>
@@ -8772,10 +8558,8 @@
           <t>4735134206</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:18:43</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44363.01299768518</v>
       </c>
       <c r="I117" t="n">
         <v>2</v>
@@ -8843,10 +8627,8 @@
           <t>4735131381</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:17:00</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44363.01180555556</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8915,10 +8697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:16:41</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44363.01158564815</v>
       </c>
       <c r="I119" t="n">
         <v>31</v>
@@ -8982,10 +8762,8 @@
           <t>4735123654</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:16:20</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44363.0113425926</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9054,10 +8832,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:14:09</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44363.00982638889</v>
       </c>
       <c r="I121" t="n">
         <v>5</v>
@@ -9121,10 +8897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:12:23</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44363.00859953704</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9196,10 +8970,8 @@
           <t>4735084850</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:09:39</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44363.00670138889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9276,10 +9048,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:06:13</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44363.00431712963</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9343,10 +9113,8 @@
           <t>4735063714</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:04:38</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44363.0032175926</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9414,10 +9182,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:04:12</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44363.00291666666</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -9481,10 +9247,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-06-16 00:04:08</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44363.00287037037</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9552,10 +9316,8 @@
           <t>4735040019</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:59:10</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44362.9994212963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9619,10 +9381,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:57:12</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44362.99805555555</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9691,10 +9451,8 @@
           <t>4735021128</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:55:53</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44362.9971412037</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9762,10 +9520,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:55:39</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44362.99697916667</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9833,10 +9589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:54:23</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44362.99609953703</v>
       </c>
       <c r="I132" t="n">
         <v>73</v>
@@ -9908,10 +9662,8 @@
           <t>4734986548</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:50:25</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44362.99334490741</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -9983,10 +9735,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:50:01</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44362.99306712963</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10046,10 +9796,8 @@
           <t>4732132485</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:49:46</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44362.99289351852</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10117,10 +9865,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:49:16</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44362.99254629629</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10184,10 +9930,8 @@
           <t>4734976743</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:48:00</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44362.99166666667</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10264,10 +10008,8 @@
           <t>4734951359</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:44:40</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44362.98935185185</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10343,10 +10085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:44:26</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44362.98918981481</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10410,10 +10150,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:42:09</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44362.98760416666</v>
       </c>
       <c r="I140" t="n">
         <v>19</v>
@@ -10477,10 +10215,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:39:23</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44362.98568287037</v>
       </c>
       <c r="I141" t="n">
         <v>20</v>
@@ -10557,10 +10293,8 @@
           <t>4734887792</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:33:58</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44362.9819212963</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10636,10 +10370,8 @@
           <t>4734882818</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:33:18</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44362.98145833334</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10715,10 +10447,8 @@
           <t>4734873767</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:32:04</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44362.98060185185</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10794,10 +10524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:21:41</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44362.9733912037</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10873,10 +10601,8 @@
           <t>4734798476</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:20:21</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44362.97246527778</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10952,10 +10678,8 @@
           <t>4734790034</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:18:10</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44362.97094907407</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11024,10 +10748,8 @@
           <t>4734744264</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:11:17</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44362.96616898148</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -11091,10 +10813,8 @@
           <t>4731964908</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:07:51</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44362.96378472223</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11158,10 +10878,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:07:10</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44362.96331018519</v>
       </c>
       <c r="I150" t="n">
         <v>109</v>
@@ -11233,10 +10951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-06-15 23:02:26</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44362.96002314815</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11300,10 +11016,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:59:13</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44362.95778935185</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -11372,10 +11086,8 @@
           <t>4734593051</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:58:02</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44362.9569675926</v>
       </c>
       <c r="I153" t="n">
         <v>2</v>
@@ -11444,10 +11156,8 @@
           <t>4732966373</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:57:13</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44362.95640046296</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11520,10 +11230,8 @@
           <t>4731964908</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:53:17</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44362.95366898148</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11587,10 +11295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:48:07</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44362.95008101852</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11658,10 +11364,8 @@
           <t>4734593051</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:47:45</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44362.94982638889</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11737,10 +11441,8 @@
           <t>4732252250</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:47:22</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44362.94956018519</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11804,10 +11506,8 @@
           <t>4734543362</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:40:14</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44362.94460648148</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11879,10 +11579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:39:52</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44362.94435185185</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11946,10 +11644,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:21:48</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44362.93180555556</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12018,10 +11714,8 @@
           <t>4732093274</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:21:16</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44362.93143518519</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12093,10 +11787,8 @@
           <t>4734403365</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:18:47</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44362.92971064815</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12164,10 +11856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:18:33</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44362.92954861111</v>
       </c>
       <c r="I164" t="n">
         <v>23</v>
@@ -12243,10 +11933,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:04:41</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44362.91991898148</v>
       </c>
       <c r="I165" t="n">
         <v>44</v>
@@ -12323,10 +12011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-06-15 22:03:33</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44362.91913194444</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12390,10 +12076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:58:57</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44362.9159375</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12453,10 +12137,8 @@
           <t>4734063699</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:58:53</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44362.9158912037</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12520,10 +12202,8 @@
           <t>4731964908</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:58:27</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44362.91559027778</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12587,10 +12267,8 @@
           <t>4734063699</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:47:09</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44362.90774305556</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12654,10 +12332,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:41:30</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44362.90381944444</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -12721,10 +12397,8 @@
           <t>4734156663</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:38:41</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44362.90186342593</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12792,10 +12466,8 @@
           <t>4734063699</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:36:48</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44362.90055555556</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12859,10 +12531,8 @@
           <t>4734142887</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:36:48</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44362.90055555556</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -12930,10 +12600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:36:25</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44362.90028935186</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -12997,10 +12665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:34:05</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44362.89866898148</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13064,10 +12730,8 @@
           <t>4734063699</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:26:46</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44362.89358796296</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13131,10 +12795,8 @@
           <t>4734069559</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:25:03</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44362.89239583333</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13198,10 +12860,8 @@
           <t>4734072825</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:24:41</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44362.8921412037</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13265,10 +12925,8 @@
           <t>4734063699</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:24:30</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44362.89201388889</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13332,10 +12990,8 @@
           <t>4734065186</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:22:57</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44362.8909375</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13395,10 +13051,8 @@
           <t>4734058927</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:22:48</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44362.89083333333</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -13466,10 +13120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:21:32</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44362.88995370371</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13533,10 +13185,8 @@
           <t>4734041709</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:19:19</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44362.88841435185</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13600,10 +13250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:16:12</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44362.88625</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13667,10 +13315,8 @@
           <t>4733852447</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-06-15 21:02:14</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44362.87655092592</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -13742,10 +13388,8 @@
           <t>4733852447</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:59:42</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44362.87479166667</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13821,10 +13465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:52:34</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44362.86983796296</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -13897,10 +13539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:49:23</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44362.86762731482</v>
       </c>
       <c r="I189" t="n">
         <v>5</v>
@@ -13968,10 +13608,8 @@
           <t>4733852447</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:47:30</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44362.86631944445</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14043,10 +13681,8 @@
           <t>4733815090</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:41:06</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44362.861875</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14114,10 +13750,8 @@
           <t>4733669846</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:39:46</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44362.86094907407</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14185,10 +13819,8 @@
           <t>4733164219</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:39:23</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44362.86068287037</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14256,10 +13888,8 @@
           <t>4733686513</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:18:26</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44362.84613425926</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14319,10 +13949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:18:06</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44362.84590277778</v>
       </c>
       <c r="I195" t="n">
         <v>6</v>
@@ -14398,10 +14026,8 @@
           <t>4733669846</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:17:28</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44362.84546296296</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14477,10 +14103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:03:56</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44362.83606481482</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14556,10 +14180,8 @@
           <t>4733597183</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-06-15 20:03:08</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44362.83550925926</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14635,10 +14257,8 @@
           <t>4733085277</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:59:37</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44362.83306712963</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -14710,10 +14330,8 @@
           <t>4733085277</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:59:24</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44362.83291666667</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14785,10 +14403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:48:39</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44362.82545138889</v>
       </c>
       <c r="I201" t="n">
         <v>13</v>
@@ -14856,10 +14472,8 @@
           <t>4733478691</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:43:22</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44362.82178240741</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -14935,10 +14549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:39:48</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44362.81930555555</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15002,10 +14614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:39:24</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44362.81902777778</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15069,10 +14679,8 @@
           <t>4733424180</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:33:29</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44362.81491898148</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15144,10 +14752,8 @@
           <t>4733349655</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:21:27</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44362.8065625</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15223,10 +14829,8 @@
           <t>4733355108</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:20:24</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44362.80583333333</v>
       </c>
       <c r="I207" t="n">
         <v>2</v>
@@ -15299,10 +14903,8 @@
           <t>4733334371</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:18:51</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44362.80475694445</v>
       </c>
       <c r="I208" t="n">
         <v>64</v>
@@ -15366,10 +14968,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:12:57</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44362.80065972222</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15437,10 +15037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:12:29</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44362.80033564815</v>
       </c>
       <c r="I210" t="n">
         <v>8</v>
@@ -15516,10 +15114,8 @@
           <t>4731964908</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:10:43</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44362.79910879629</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15591,10 +15187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:08:20</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44362.7974537037</v>
       </c>
       <c r="I212" t="n">
         <v>5</v>
@@ -15662,10 +15256,8 @@
           <t>4733265208</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-06-15 19:05:55</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44362.79577546296</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15725,10 +15317,8 @@
           <t>4733187032</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:52:58</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44362.78678240741</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -15796,10 +15386,8 @@
           <t>4731964908</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:52:18</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44362.78631944444</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15863,10 +15451,8 @@
           <t>4732252250</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:52:06</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44362.78618055556</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -15937,10 +15523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:51:53</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44362.78603009259</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16016,10 +15600,8 @@
           <t>4733164219</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:50:55</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44362.7853587963</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16087,10 +15669,8 @@
           <t>4733126325</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:42:43</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44362.77966435185</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16158,10 +15738,8 @@
           <t>4733105459</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:39:16</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44362.77726851852</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16225,10 +15803,8 @@
           <t>4733094443</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:38:46</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44362.7769212963</v>
       </c>
       <c r="I221" t="n">
         <v>3</v>
@@ -16300,10 +15876,8 @@
           <t>4732966373</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:38:12</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44362.77652777778</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16371,10 +15945,8 @@
           <t>4733085277</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:35:18</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44362.77451388889</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16450,10 +16022,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:33:49</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44362.7734837963</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16521,10 +16091,8 @@
           <t>4732906189</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:33:22</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44362.7731712963</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16601,10 +16169,8 @@
           <t>4733070668</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:32:49</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44362.77278935185</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -16673,10 +16239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:32:38</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44362.77266203704</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16741,10 +16305,8 @@
           <t>4733053439</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:31:10</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44362.77164351852</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -16813,10 +16375,8 @@
           <t>4732829069</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:27:18</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44362.76895833333</v>
       </c>
       <c r="I229" t="n">
         <v>3</v>
@@ -16888,10 +16448,8 @@
           <t>4733018803</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:26:00</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44362.76805555556</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -16955,10 +16513,8 @@
           <t>4731964908</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:23:37</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44362.76640046296</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17018,10 +16574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:21:24</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44362.76486111111</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17089,10 +16643,8 @@
           <t>4732963506</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:15:51</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44362.76100694444</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17160,10 +16712,8 @@
           <t>4732966373</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:14:47</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44362.7602662037</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17236,10 +16786,8 @@
           <t>4732949087</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:13:35</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44362.75943287037</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17311,10 +16859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:10:07</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44362.75702546296</v>
       </c>
       <c r="I236" t="n">
         <v>24</v>
@@ -17386,10 +16932,8 @@
           <t>4732936758</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:09:45</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44362.75677083333</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17457,10 +17001,8 @@
           <t>4732936413</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:09:35</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44362.75665509259</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17533,10 +17075,8 @@
           <t>4732936125</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:09:27</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44362.7565625</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17600,10 +17140,8 @@
           <t>4732059775</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:07:52</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44362.75546296296</v>
       </c>
       <c r="I240" t="n">
         <v>13</v>
@@ -17667,10 +17205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:07:46</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44362.75539351852</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17730,10 +17266,8 @@
           <t>4732906189</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:06:44</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44362.75467592593</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -17807,10 +17341,8 @@
           <t>4732906189</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:04:25</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44362.75306712963</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -17886,10 +17418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-06-15 18:00:53</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44362.75061342592</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -17961,10 +17491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:59:41</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44362.74978009259</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18024,10 +17552,8 @@
           <t>4732867219</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:58:20</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44362.74884259259</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18095,10 +17621,8 @@
           <t>4732849350</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:55:31</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44362.74688657407</v>
       </c>
       <c r="I247" t="n">
         <v>4</v>
@@ -18170,10 +17694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:54:23</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44362.74609953703</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18249,10 +17771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:53:42</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44362.745625</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18324,10 +17844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:53:08</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44362.74523148148</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18395,10 +17913,8 @@
           <t>4732829069</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:52:29</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44362.74478009259</v>
       </c>
       <c r="I251" t="n">
         <v>10</v>
@@ -18470,10 +17986,8 @@
           <t>4732836055</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:51:46</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44362.74428240741</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18541,10 +18055,8 @@
           <t>4732830876</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:50:50</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44362.74363425926</v>
       </c>
       <c r="I253" t="n">
         <v>2</v>
@@ -18608,10 +18120,8 @@
           <t>4732800350</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:44:45</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44362.73940972222</v>
       </c>
       <c r="I254" t="n">
         <v>16</v>
@@ -18683,10 +18193,8 @@
           <t>4731883282</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:43:24</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44362.73847222222</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18750,10 +18258,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:42:26</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44362.73780092593</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18817,10 +18323,8 @@
           <t>4732769426</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:41:14</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44362.73696759259</v>
       </c>
       <c r="I257" t="n">
         <v>11</v>
@@ -18892,10 +18396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:39:39</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44362.73586805556</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -18959,10 +18461,8 @@
           <t>4732610112</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:37:11</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44362.73415509259</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19030,10 +18530,8 @@
           <t>4732737591</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:34:18</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44362.73215277777</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19109,10 +18607,8 @@
           <t>4732610112</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:34:03</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44362.73197916667</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19180,10 +18676,8 @@
           <t>4732723635</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:31:51</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44362.73045138889</v>
       </c>
       <c r="I262" t="n">
         <v>2</v>
@@ -19247,10 +18741,8 @@
           <t>4732710439</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:26:55</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44362.72702546296</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19314,10 +18806,8 @@
           <t>4732428162</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:26:55</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44362.72702546296</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19385,10 +18875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:26:02</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44362.72641203704</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19448,10 +18936,8 @@
           <t>4732692828</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:24:55</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44362.72563657408</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19515,10 +19001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:24:22</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44362.72525462963</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19586,10 +19070,8 @@
           <t>4731909730</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:23:54</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44362.72493055555</v>
       </c>
       <c r="I268" t="n">
         <v>3</v>
@@ -19665,10 +19147,8 @@
           <t>4732664518</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:21:38</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44362.72335648148</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19737,10 +19217,8 @@
           <t>4731883282</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:20:26</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44362.72252314815</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19816,10 +19294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:20:23</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44362.72248842593</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -19895,10 +19371,8 @@
           <t>4732039329</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:20:07</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44362.72230324074</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -19971,10 +19445,8 @@
           <t>4732664518</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:19:34</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44362.7219212963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20042,10 +19514,8 @@
           <t>4732673517</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:19:34</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44362.7219212963</v>
       </c>
       <c r="I274" t="n">
         <v>11</v>
@@ -20113,10 +19583,8 @@
           <t>4732668043</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:19:14</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44362.72168981482</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -20184,10 +19652,8 @@
           <t>4732667825</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:19:07</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44362.7216087963</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20255,10 +19721,8 @@
           <t>4732663727</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:19:03</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44362.7215625</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20330,10 +19794,8 @@
           <t>4732663682</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:19:01</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44362.72153935185</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20405,10 +19867,8 @@
           <t>4732240310</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:18:15</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44362.72100694444</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20486,10 +19946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:14:03</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44362.71809027778</v>
       </c>
       <c r="I280" t="n">
         <v>73</v>
@@ -20553,10 +20011,8 @@
           <t>4731909730</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:13:51</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44362.71795138889</v>
       </c>
       <c r="I281" t="n">
         <v>4</v>
@@ -20624,10 +20080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:12:32</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44362.71703703704</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20695,10 +20149,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:12:20</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44362.71689814814</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20762,10 +20214,8 @@
           <t>4732627108</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:09:03</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44362.71461805556</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -20837,10 +20287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:07:34</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44362.71358796296</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -20913,10 +20361,8 @@
           <t>4732610112</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:06:57</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44362.71315972223</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -20988,10 +20434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:06:00</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44362.7125</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21055,10 +20499,8 @@
           <t>4731883282</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:05:28</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44362.71212962963</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21134,10 +20576,8 @@
           <t>4732610112</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:04:30</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44362.71145833333</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21205,10 +20645,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:02:43</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44362.71021990741</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21276,10 +20714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:01:33</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44362.70940972222</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21351,10 +20787,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:00:42</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44362.70881944444</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21422,10 +20856,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-06-15 17:00:29</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44362.70866898148</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21502,10 +20934,8 @@
           <t>4732582071</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:59:14</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44362.70780092593</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21577,10 +21007,8 @@
           <t>4732576301</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:58:28</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44362.70726851852</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21656,10 +21084,8 @@
           <t>4732572008</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:57:50</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44362.7068287037</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21720,10 +21146,8 @@
           <t>4731883282</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:56:53</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44362.70616898148</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21787,10 +21211,8 @@
           <t>4732559526</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:56:07</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44362.70563657407</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -21858,10 +21280,8 @@
           <t>4732566856</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:55:41</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44362.70533564815</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -21929,10 +21349,8 @@
           <t>4732552447</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:52:42</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44362.70326388889</v>
       </c>
       <c r="I300" t="n">
         <v>2</v>
@@ -22000,10 +21418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:50:25</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44362.70167824074</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22075,10 +21491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:50:19</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44362.7016087963</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22150,10 +21564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:50:05</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44362.70144675926</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22225,10 +21637,8 @@
           <t>4732523483</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:46:28</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44362.69893518519</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22304,10 +21714,8 @@
           <t>4731883282</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:45:54</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44362.69854166666</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22371,10 +21779,8 @@
           <t>4731883282</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:44:32</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44362.69759259259</v>
       </c>
       <c r="I306" t="n">
         <v>2</v>
@@ -22439,10 +21845,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:44:11</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44362.69734953704</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22511,10 +21915,8 @@
           <t>4732511034</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:42:47</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44362.69637731482</v>
       </c>
       <c r="I308" t="n">
         <v>2</v>
@@ -22578,10 +21980,8 @@
           <t>4732508099</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:42:38</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44362.69627314815</v>
       </c>
       <c r="I309" t="n">
         <v>4</v>
@@ -22645,10 +22045,8 @@
           <t>4732505292</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:40:39</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44362.69489583333</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -22720,10 +22118,8 @@
           <t>4732215628</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:40:10</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44362.69456018518</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22799,10 +22195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:39:36</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44362.69416666667</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -22874,10 +22268,8 @@
           <t>4732491629</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:37:57</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44362.69302083334</v>
       </c>
       <c r="I313" t="n">
         <v>2</v>
@@ -22941,10 +22333,8 @@
           <t>4731909730</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:37:17</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44362.69255787037</v>
       </c>
       <c r="I314" t="n">
         <v>36</v>
@@ -23016,10 +22406,8 @@
           <t>4732485553</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:36:50</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44362.69224537037</v>
       </c>
       <c r="I315" t="n">
         <v>10</v>
@@ -23087,10 +22475,8 @@
           <t>4732454738</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:36:06</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44362.69173611111</v>
       </c>
       <c r="I316" t="n">
         <v>4</v>
@@ -23159,10 +22545,8 @@
           <t>4732480153</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:34:49</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44362.69084490741</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23226,10 +22610,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:30:51</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44362.68809027778</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23293,10 +22675,8 @@
           <t>4732454738</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:30:50</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44362.6880787037</v>
       </c>
       <c r="I319" t="n">
         <v>40</v>
@@ -23372,10 +22752,8 @@
           <t>4732456158</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:30:03</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44362.68753472222</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23447,10 +22825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:29:55</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44362.68744212963</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23522,10 +22898,8 @@
           <t>4732455955</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:29:53</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44362.68741898148</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23597,10 +22971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:28:45</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44362.68663194445</v>
       </c>
       <c r="I323" t="n">
         <v>2</v>
@@ -23672,10 +23044,8 @@
           <t>4732448046</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:28:15</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44362.68628472222</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23751,10 +23121,8 @@
           <t>4732289911</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:27:36</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44362.68583333334</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23822,10 +23190,8 @@
           <t>4732441907</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:26:58</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44362.68539351852</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -23893,10 +23259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:26:42</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44362.68520833334</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -23964,10 +23328,8 @@
           <t>4732439071</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:26:37</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44362.68515046296</v>
       </c>
       <c r="I328" t="n">
         <v>6</v>
@@ -24044,10 +23406,8 @@
           <t>4732445435</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:26:21</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44362.68496527777</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24115,10 +23475,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:26:03</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44362.68475694444</v>
       </c>
       <c r="I330" t="n">
         <v>5</v>
@@ -24182,10 +23540,8 @@
           <t>4732428162</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:24:14</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44362.68349537037</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24261,10 +23617,8 @@
           <t>4732299453</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:21:24</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44362.68152777778</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24324,10 +23678,8 @@
           <t>4732414290</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:21:23</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44362.6815162037</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24395,10 +23747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:14:10</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44362.67650462963</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24462,10 +23812,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:12:57</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44362.67565972222</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24533,10 +23881,8 @@
           <t>4732215628</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:12:34</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44362.67539351852</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24600,10 +23946,8 @@
           <t>4732390124</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:12:33</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44362.67538194444</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -24675,10 +24019,8 @@
           <t>4732349194</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:12:14</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44362.67516203703</v>
       </c>
       <c r="I338" t="n">
         <v>3</v>
@@ -24747,10 +24089,8 @@
           <t>4731964908</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:10:23</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44362.67387731482</v>
       </c>
       <c r="I339" t="n">
         <v>6</v>
@@ -24815,10 +24155,8 @@
           <t>4732299453</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:09:39</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44362.67336805556</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -24886,10 +24224,8 @@
           <t>4732363966</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:07:50</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44362.67210648148</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -24962,10 +24298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:07:14</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44362.67168981482</v>
       </c>
       <c r="I342" t="n">
         <v>794</v>
@@ -25034,10 +24368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:05:53</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44362.67075231481</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25097,10 +24429,8 @@
           <t>4732361294</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:05:50</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44362.67071759259</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25170,10 +24500,8 @@
           <t>4732294722</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:05:36</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44362.67055555555</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25241,10 +24569,8 @@
           <t>4732349194</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:04:16</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44362.66962962963</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25314,10 +24640,8 @@
           <t>4732039056</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:03:29</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44362.66908564815</v>
       </c>
       <c r="I347" t="n">
         <v>3</v>
@@ -25385,10 +24709,8 @@
           <t>4732346050</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:01:54</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44362.66798611111</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25464,10 +24786,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-06-15 16:01:45</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44362.66788194444</v>
       </c>
       <c r="I349" t="n">
         <v>3</v>
@@ -25535,10 +24855,8 @@
           <t>4732289911</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:59:01</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44362.66598379629</v>
       </c>
       <c r="I350" t="n">
         <v>13</v>
@@ -25607,10 +24925,8 @@
           <t>4732321986</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:57:25</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44362.66487268519</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25686,10 +25002,8 @@
           <t>4732313126</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:55:14</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44362.66335648148</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25765,10 +25079,8 @@
           <t>4732308381</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:54:41</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44362.66297453704</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -25832,10 +25144,8 @@
           <t>4732299453</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:52:34</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44362.66150462963</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -25895,10 +25205,8 @@
           <t>4732294722</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:51:53</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44362.66103009259</v>
       </c>
       <c r="I355" t="n">
         <v>12</v>
@@ -25966,10 +25274,8 @@
           <t>4732294397</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:51:38</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44362.66085648148</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26037,10 +25343,8 @@
           <t>4732301497</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:50:45</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44362.66024305556</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26104,10 +25408,8 @@
           <t>4732289911</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:49:33</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44362.65940972222</v>
       </c>
       <c r="I358" t="n">
         <v>24</v>
@@ -26179,10 +25481,8 @@
           <t>4732295243</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:49:21</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44362.65927083333</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26242,10 +25542,8 @@
           <t>4732289219</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:49:01</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44362.65903935185</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26317,10 +25615,8 @@
           <t>4732288881</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:48:44</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44362.65884259259</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26384,10 +25680,8 @@
           <t>4732284013</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:48:25</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44362.65862268519</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26455,10 +25749,8 @@
           <t>4732283072</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:47:42</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44362.658125</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26534,10 +25826,8 @@
           <t>4732093277</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:46:47</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44362.65748842592</v>
       </c>
       <c r="I364" t="n">
         <v>2</v>
@@ -26605,10 +25895,8 @@
           <t>4732285947</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:46:30</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44362.65729166667</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26676,10 +25964,8 @@
           <t>4732272192</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:43:37</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44362.65528935185</v>
       </c>
       <c r="I366" t="n">
         <v>13</v>
@@ -26751,10 +26037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:43:36</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44362.65527777778</v>
       </c>
       <c r="I367" t="n">
         <v>133</v>
@@ -26826,10 +26110,8 @@
           <t>4732271335</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:42:58</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44362.65483796296</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -26905,10 +26187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:42:03</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44362.65420138889</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -26984,10 +26264,8 @@
           <t>4732093277</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:40:29</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44362.65311342593</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27055,10 +26333,8 @@
           <t>4732252250</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:39:20</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44362.65231481481</v>
       </c>
       <c r="I371" t="n">
         <v>4</v>
@@ -27126,10 +26402,8 @@
           <t>4732081034</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:38:27</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44362.65170138889</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27197,10 +26471,8 @@
           <t>4732239959</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:37:32</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44362.65106481482</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27268,10 +26540,8 @@
           <t>4732244503</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:37:28</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44362.65101851852</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27347,10 +26617,8 @@
           <t>4732240310</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:34:08</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44362.6487037037</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27414,10 +26682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:33:20</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44362.64814814815</v>
       </c>
       <c r="I376" t="n">
         <v>624</v>
@@ -27499,10 +26765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:31:06</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44362.64659722222</v>
       </c>
       <c r="I377" t="n">
         <v>185</v>
@@ -27566,10 +26830,8 @@
           <t>4732225608</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:30:27</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44362.64614583334</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27637,10 +26899,8 @@
           <t>4732220204</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:29:56</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44362.64578703704</v>
       </c>
       <c r="I379" t="n">
         <v>2</v>
@@ -27708,10 +26968,8 @@
           <t>4732216125</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:29:31</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44362.64549768518</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -27779,10 +27037,8 @@
           <t>4732215628</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:29:08</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44362.64523148148</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -27858,10 +27114,8 @@
           <t>4732212926</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:28:20</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44362.64467592593</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -27929,10 +27183,8 @@
           <t>4732204513</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:28:17</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44362.6446412037</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28008,10 +27260,8 @@
           <t>4732212638</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:28:07</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44362.64452546297</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28080,10 +27330,8 @@
           <t>4732132485</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:27:14</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44362.64391203703</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28151,10 +27399,8 @@
           <t>4732189905</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:24:42</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44362.64215277778</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28226,10 +27472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:24:11</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44362.64179398148</v>
       </c>
       <c r="I387" t="n">
         <v>63</v>
@@ -28306,10 +27550,8 @@
           <t>4732188485</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:23:36</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44362.64138888889</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28381,10 +27623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:23:23</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44362.64123842592</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28454,10 +27694,8 @@
           <t>4732187820</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:23:04</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44362.64101851852</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28533,10 +27771,8 @@
           <t>4732195588</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:22:33</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44362.64065972222</v>
       </c>
       <c r="I391" t="n">
         <v>4</v>
@@ -28604,10 +27840,8 @@
           <t>4732190265</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:22:17</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44362.64047453704</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28675,10 +27909,8 @@
           <t>4732081034</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:22:09</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44362.64038194445</v>
       </c>
       <c r="I393" t="n">
         <v>8</v>
@@ -28750,10 +27982,8 @@
           <t>4732186336</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:21:54</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44362.64020833333</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -28829,10 +28059,8 @@
           <t>4732132485</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:20:40</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44362.63935185185</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -28913,10 +28141,8 @@
           <t>4731883282</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:19:54</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44362.63881944444</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -28992,10 +28218,8 @@
           <t>4732132485</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:19:27</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44362.63850694444</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29063,10 +28287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:18:02</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44362.63752314815</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29130,10 +28352,8 @@
           <t>4732171362</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:17:59</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44362.63748842593</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29209,10 +28429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:17:48</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44362.63736111111</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29272,10 +28490,8 @@
           <t>4732164491</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:17:39</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44362.63725694444</v>
       </c>
       <c r="I401" t="n">
         <v>2</v>
@@ -29351,10 +28567,8 @@
           <t>4732164102</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:17:19</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44362.63702546297</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29426,10 +28640,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:17:19</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44362.63702546297</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -29493,10 +28705,8 @@
           <t>4732132485</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:16:54</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44362.63673611111</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29564,10 +28774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:16:22</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44362.63636574074</v>
       </c>
       <c r="I405" t="n">
         <v>18</v>
@@ -29635,10 +28843,8 @@
           <t>4732132485</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:16:20</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44362.6363425926</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29706,10 +28912,8 @@
           <t>4732157629</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:15:04</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44362.63546296296</v>
       </c>
       <c r="I407" t="n">
         <v>2</v>
@@ -29773,10 +28977,8 @@
           <t>4732165609</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:14:48</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44362.63527777778</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -29848,10 +29050,8 @@
           <t>4732132485</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:14:14</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44362.63488425926</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -29932,10 +29132,8 @@
           <t>4732155603</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:13:25</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44362.63431712963</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30016,10 +29214,8 @@
           <t>4732039056</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:11:51</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44362.63322916667</v>
       </c>
       <c r="I411" t="n">
         <v>3</v>
@@ -30087,10 +29283,8 @@
           <t>4731964908</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:11:42</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44362.633125</v>
       </c>
       <c r="I412" t="n">
         <v>34</v>
@@ -30162,10 +29356,8 @@
           <t>4732146824</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:11:32</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44362.63300925926</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30225,10 +29417,8 @@
           <t>4732142571</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:11:03</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44362.63267361111</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30296,10 +29486,8 @@
           <t>4732138868</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:11:00</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44362.63263888889</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30367,10 +29555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:10:08</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44362.63203703704</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30442,10 +29628,8 @@
           <t>4732134484</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:09:43</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44362.63174768518</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30509,10 +29693,8 @@
           <t>4732138868</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:09:36</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44362.63166666667</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30584,10 +29766,8 @@
           <t>4732138447</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:09:16</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44362.63143518518</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30647,10 +29827,8 @@
           <t>4732132485</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:08:07</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44362.63063657407</v>
       </c>
       <c r="I420" t="n">
         <v>9</v>
@@ -30718,10 +29896,8 @@
           <t>4732127638</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:07:11</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44362.62998842593</v>
       </c>
       <c r="I421" t="n">
         <v>5</v>
@@ -30797,10 +29973,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:06:27</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44362.62947916667</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -30864,10 +30038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:05:59</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44362.6291550926</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -30935,10 +30107,8 @@
           <t>4732119542</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:05:45</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44362.62899305556</v>
       </c>
       <c r="I424" t="n">
         <v>4</v>
@@ -31014,10 +30184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:05:01</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44362.6284837963</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31087,10 +30255,8 @@
           <t>4732121762</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:04:02</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44362.62780092593</v>
       </c>
       <c r="I426" t="n">
         <v>3</v>
@@ -31166,10 +30332,8 @@
           <t>4732101374</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:03:13</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44362.62723379629</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31241,10 +30405,8 @@
           <t>4732101374</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:02:55</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44362.62702546296</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31320,10 +30482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:00:46</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44362.62553240741</v>
       </c>
       <c r="I429" t="n">
         <v>23</v>
@@ -31391,10 +30551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-06-15 15:00:15</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44362.62517361111</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31462,10 +30620,8 @@
           <t>4732101374</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:59:43</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44362.62480324074</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31541,10 +30697,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:59:34</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44362.62469907408</v>
       </c>
       <c r="I432" t="n">
         <v>3</v>
@@ -31612,10 +30766,8 @@
           <t>4732101374</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:59:19</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44362.62452546296</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31689,10 +30841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:58:02</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44362.62363425926</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31760,10 +30910,8 @@
           <t>4732089460</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:57:48</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44362.62347222222</v>
       </c>
       <c r="I435" t="n">
         <v>14</v>
@@ -31835,10 +30983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:57:47</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44362.62346064814</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -31898,10 +31044,8 @@
           <t>4732067655</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:57:42</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44362.62340277778</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -31969,10 +31113,8 @@
           <t>4732093534</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:57:41</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44362.62339120371</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32036,10 +31178,8 @@
           <t>4732093277</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:57:28</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44362.62324074074</v>
       </c>
       <c r="I439" t="n">
         <v>10</v>
@@ -32107,10 +31247,8 @@
           <t>4732093274</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:57:27</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44362.62322916667</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32182,10 +31320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:56:01</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44362.6222337963</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32253,10 +31389,8 @@
           <t>4732090902</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:55:36</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44362.62194444444</v>
       </c>
       <c r="I442" t="n">
         <v>13</v>
@@ -32320,10 +31454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:54:27</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44362.62114583333</v>
       </c>
       <c r="I443" t="n">
         <v>3</v>
@@ -32387,10 +31519,8 @@
           <t>4732081034</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:54:14</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44362.62099537037</v>
       </c>
       <c r="I444" t="n">
         <v>5</v>
@@ -32454,10 +31584,8 @@
           <t>4732039056</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:54:01</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44362.6208449074</v>
       </c>
       <c r="I445" t="n">
         <v>3</v>
@@ -32525,10 +31653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:52:56</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44362.6200925926</v>
       </c>
       <c r="I446" t="n">
         <v>57</v>
@@ -32600,10 +31726,8 @@
           <t>4732076765</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:52:26</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44362.61974537037</v>
       </c>
       <c r="I447" t="n">
         <v>14</v>
@@ -32675,10 +31799,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:52:13</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44362.61959490741</v>
       </c>
       <c r="I448" t="n">
         <v>2</v>
@@ -32742,10 +31864,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:52:03</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44362.61947916666</v>
       </c>
       <c r="I449" t="n">
         <v>18</v>
@@ -32813,10 +31933,8 @@
           <t>4732067655</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:51:45</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44362.61927083333</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -32888,10 +32006,8 @@
           <t>4732075372</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:51:22</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44362.61900462963</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -32963,10 +32079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:50:39</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44362.61850694445</v>
       </c>
       <c r="I452" t="n">
         <v>5</v>
@@ -33034,10 +32148,8 @@
           <t>4732059775</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:50:13</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44362.61820601852</v>
       </c>
       <c r="I453" t="n">
         <v>66</v>
@@ -33120,10 +32232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:49:44</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44362.61787037037</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33187,10 +32297,8 @@
           <t>4732054890</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:49:36</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44362.61777777778</v>
       </c>
       <c r="I455" t="n">
         <v>66</v>
@@ -33258,10 +32366,8 @@
           <t>4732058336</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:49:03</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44362.61739583333</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -33337,10 +32443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:48:58</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44362.61733796296</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -33408,10 +32512,8 @@
           <t>4732053238</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:48:17</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44362.61686342592</v>
       </c>
       <c r="I458" t="n">
         <v>1</v>
@@ -33481,10 +32583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:47:57</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44362.61663194445</v>
       </c>
       <c r="I459" t="n">
         <v>11</v>
@@ -33548,10 +32648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:47:43</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44362.61646990741</v>
       </c>
       <c r="I460" t="n">
         <v>83</v>
@@ -33615,10 +32713,8 @@
           <t>4732055266</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:46:37</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44362.61570601852</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33690,10 +32786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:46:32</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44362.61564814814</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33765,10 +32859,8 @@
           <t>4732048574</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:46:04</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44362.61532407408</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -33840,10 +32932,8 @@
           <t>4732047713</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:45:25</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44362.61487268518</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -33919,10 +33009,8 @@
           <t>4732039329</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:45:13</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44362.6147337963</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -33998,10 +33086,8 @@
           <t>4732039056</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:45:00</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44362.61458333334</v>
       </c>
       <c r="I466" t="n">
         <v>20</v>
@@ -34065,10 +33151,8 @@
           <t>4732038948</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:44:55</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44362.61452546297</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34140,10 +33224,8 @@
           <t>4732037749</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:43:58</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44362.61386574074</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34220,10 +33302,8 @@
           <t>4732037563</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:43:50</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44362.61377314815</v>
       </c>
       <c r="I469" t="n">
         <v>2</v>
@@ -34300,10 +33380,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:43:38</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44362.61363425926</v>
       </c>
       <c r="I470" t="n">
         <v>7</v>
@@ -34379,10 +33457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:43:22</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44362.61344907407</v>
       </c>
       <c r="I471" t="n">
         <v>185</v>
@@ -34450,10 +33526,8 @@
           <t>4732035732</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:42:24</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44362.61277777778</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34523,10 +33597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:42:02</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44362.61252314815</v>
       </c>
       <c r="I473" t="n">
         <v>5</v>
@@ -34602,10 +33674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:42:00</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44362.6125</v>
       </c>
       <c r="I474" t="n">
         <v>1</v>
@@ -34669,10 +33739,8 @@
           <t>4732024141</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:41:07</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44362.61188657407</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34740,10 +33808,8 @@
           <t>4732018358</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:38:08</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44362.60981481482</v>
       </c>
       <c r="I476" t="n">
         <v>58</v>
@@ -34803,10 +33869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:37:55</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44362.60966435185</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -34870,10 +33934,8 @@
           <t>4732015354</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:35:48</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44362.60819444444</v>
       </c>
       <c r="I478" t="n">
         <v>5</v>
@@ -34941,10 +34003,8 @@
           <t>4732006272</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:34:52</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44362.6075462963</v>
       </c>
       <c r="I479" t="n">
         <v>3</v>
@@ -35008,10 +34068,8 @@
           <t>4732010280</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:34:43</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44362.60744212963</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -35079,10 +34137,8 @@
           <t>4732003221</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:34:06</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44362.60701388889</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35154,10 +34210,8 @@
           <t>4732002894</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:33:52</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44362.60685185185</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35225,10 +34279,8 @@
           <t>4731883645</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:33:40</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44362.60671296297</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35298,10 +34350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:33:30</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44362.60659722222</v>
       </c>
       <c r="I484" t="n">
         <v>51</v>
@@ -35373,10 +34423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:33:14</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44362.60641203704</v>
       </c>
       <c r="I485" t="n">
         <v>3</v>
@@ -35442,10 +34490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:31:30</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44362.60520833333</v>
       </c>
       <c r="I486" t="n">
         <v>67</v>
@@ -35505,10 +34551,8 @@
           <t>4731991018</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:30:47</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44362.60471064815</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35586,10 +34630,8 @@
           <t>4731963130</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:30:40</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44362.60462962963</v>
       </c>
       <c r="I488" t="n">
         <v>13</v>
@@ -35661,10 +34703,8 @@
           <t>4731981227</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:30:34</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44362.60456018519</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -35728,10 +34768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:30:03</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44362.60420138889</v>
       </c>
       <c r="I490" t="n">
         <v>16</v>
@@ -35807,10 +34845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:29:56</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44362.60412037037</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -35870,10 +34906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:29:38</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44362.60391203704</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -35945,10 +34979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:29:19</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44362.60369212963</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36016,10 +35048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:29:07</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44362.60355324074</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36095,10 +35125,8 @@
           <t>4731981227</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:27:38</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44362.60252314815</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36166,10 +35194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:27:16</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44362.60226851852</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36237,10 +35263,8 @@
           <t>4731974180</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:27:07</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44362.60216435185</v>
       </c>
       <c r="I497" t="n">
         <v>10</v>
@@ -36304,10 +35328,8 @@
           <t>4731975393</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:26</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44362.60168981482</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36372,10 +35394,8 @@
           <t>4731969702</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:25</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44362.60167824074</v>
       </c>
       <c r="I499" t="n">
         <v>3</v>
@@ -36440,10 +35460,8 @@
           <t>4731969518</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:16</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44362.60157407408</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36511,10 +35529,8 @@
           <t>4731975180</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:16</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44362.60157407408</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36579,10 +35595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:11</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44362.6015162037</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36642,10 +35656,8 @@
           <t>4731964908</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:26:03</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44362.60142361111</v>
       </c>
       <c r="I503" t="n">
         <v>113</v>
@@ -36713,10 +35725,8 @@
           <t>4731930184</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:25:27</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44362.60100694445</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -36781,10 +35791,8 @@
           <t>4731963130</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:24:38</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44362.60043981481</v>
       </c>
       <c r="I505" t="n">
         <v>86</v>
@@ -36852,10 +35860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:23:56</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44362.59995370371</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -36919,10 +35925,8 @@
           <t>4731961731</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:23:31</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44362.59966435185</v>
       </c>
       <c r="I507" t="n">
         <v>28</v>
@@ -36998,10 +36002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:23:07</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44362.59938657407</v>
       </c>
       <c r="I508" t="n">
         <v>64</v>
@@ -37069,10 +36071,8 @@
           <t>4731883645</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:22:55</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44362.59924768518</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37140,10 +36140,8 @@
           <t>4731948839</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:21:14</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44362.5980787037</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -37207,10 +36205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:20:57</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44362.59788194444</v>
       </c>
       <c r="I511" t="n">
         <v>1439</v>
@@ -37282,10 +36278,8 @@
           <t>4731952720</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:20:49</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44362.59778935185</v>
       </c>
       <c r="I512" t="n">
         <v>11</v>
@@ -37353,10 +36347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:20:48</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44362.59777777778</v>
       </c>
       <c r="I513" t="n">
         <v>168</v>
@@ -37425,10 +36417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:19:29</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44362.59686342593</v>
       </c>
       <c r="I514" t="n">
         <v>362</v>
@@ -37501,10 +36491,8 @@
           <t>4731939965</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:18:41</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44362.59630787037</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -37576,10 +36564,8 @@
           <t>4731933942</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:25</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44362.59542824074</v>
       </c>
       <c r="I516" t="n">
         <v>6</v>
@@ -37647,10 +36633,8 @@
           <t>4731941489</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:17:09</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44362.59524305556</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -37715,10 +36699,8 @@
           <t>4731903619</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:59</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44362.59512731482</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -37795,10 +36777,8 @@
           <t>4731932846</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:33</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44362.59482638889</v>
       </c>
       <c r="I519" t="n">
         <v>15</v>
@@ -37862,10 +36842,8 @@
           <t>4731930184</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:16:11</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44362.59457175926</v>
       </c>
       <c r="I520" t="n">
         <v>4</v>
@@ -37933,10 +36911,8 @@
           <t>4731903619</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:15:06</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44362.59381944445</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38000,10 +36976,8 @@
           <t>4731935198</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:51</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44362.59364583333</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38079,10 +37053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:39</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44362.59350694445</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38160,10 +37132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:30</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44362.59340277778</v>
       </c>
       <c r="I524" t="n">
         <v>24</v>
@@ -38227,10 +37197,8 @@
           <t>4731927996</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:25</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44362.59334490741</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38294,10 +37262,8 @@
           <t>4731930184</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:14:24</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44362.59333333333</v>
       </c>
       <c r="I526" t="n">
         <v>8</v>
@@ -38365,10 +37331,8 @@
           <t>4731919271</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:13:40</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44362.59282407408</v>
       </c>
       <c r="I527" t="n">
         <v>9</v>
@@ -38436,10 +37400,8 @@
           <t>4731903619</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:13:35</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44362.59276620371</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38511,10 +37473,8 @@
           <t>4731919092</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:13:31</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44362.59271990741</v>
       </c>
       <c r="I529" t="n">
         <v>38</v>
@@ -38590,10 +37550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:13:12</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44362.5925</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38665,10 +37623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:13:12</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44362.5925</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -38736,10 +37692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:59</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44362.59234953704</v>
       </c>
       <c r="I532" t="n">
         <v>6</v>
@@ -38807,10 +37761,8 @@
           <t>4731903619</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:12:40</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44362.59212962963</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -38878,10 +37830,8 @@
           <t>4731916519</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:11:25</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44362.59126157407</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -38953,10 +37903,8 @@
           <t>4731915662</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:10:45</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44362.59079861111</v>
       </c>
       <c r="I535" t="n">
         <v>1</v>
@@ -39016,10 +37964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:10:29</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44362.59061342593</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39087,10 +38033,8 @@
           <t>4731909730</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:10:24</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44362.59055555556</v>
       </c>
       <c r="I537" t="n">
         <v>95</v>
@@ -39166,10 +38110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:49</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44362.59015046297</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39245,10 +38187,8 @@
           <t>4731908267</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:16</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44362.58976851852</v>
       </c>
       <c r="I539" t="n">
         <v>2</v>
@@ -39324,10 +38264,8 @@
           <t>4731903619</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:09:12</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44362.58972222222</v>
       </c>
       <c r="I540" t="n">
         <v>2</v>
@@ -39387,10 +38325,8 @@
           <t>4731910661</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:35</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44362.58929398148</v>
       </c>
       <c r="I541" t="n">
         <v>2</v>
@@ -39454,10 +38390,8 @@
           <t>4731910420</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:25</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44362.58917824074</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39533,10 +38467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:08:17</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44362.58908564815</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39604,10 +38536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:54</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44362.58881944444</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -39671,10 +38601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:46</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44362.58872685185</v>
       </c>
       <c r="I545" t="n">
         <v>13</v>
@@ -39738,10 +38666,8 @@
           <t>4731899168</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:27</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44362.58850694444</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -39807,10 +38733,8 @@
           <t>4731883282</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:07:23</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44362.58846064815</v>
       </c>
       <c r="I547" t="n">
         <v>2</v>
@@ -39874,10 +38798,8 @@
           <t>4731883645</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:34</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44362.58789351852</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -39945,10 +38867,8 @@
           <t>4731883891</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:20</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44362.58773148148</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40016,10 +38936,8 @@
           <t>4731883645</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:10</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44362.58761574074</v>
       </c>
       <c r="I550" t="n">
         <v>2</v>
@@ -40085,10 +39003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:06:03</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44362.58753472222</v>
       </c>
       <c r="I551" t="n">
         <v>13</v>
@@ -40164,10 +39080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:53</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44362.58741898148</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40231,10 +39145,8 @@
           <t>4731893166</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:23</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44362.58707175926</v>
       </c>
       <c r="I553" t="n">
         <v>9</v>
@@ -40294,10 +39206,8 @@
           <t>4731883645</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:05:10</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44362.58692129629</v>
       </c>
       <c r="I554" t="n">
         <v>4</v>
@@ -40368,10 +39278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:42</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44362.58659722222</v>
       </c>
       <c r="I555" t="n">
         <v>1139</v>
@@ -40435,10 +39343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:35</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44362.5865162037</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -40514,10 +39420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:04:01</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44362.58612268518</v>
       </c>
       <c r="I557" t="n">
         <v>1</v>
@@ -40581,10 +39485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:58</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44362.58608796296</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -40663,10 +39565,8 @@
           <t>4731886824</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:57</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44362.58607638889</v>
       </c>
       <c r="I559" t="n">
         <v>4</v>
@@ -40734,10 +39634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:56</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44362.58606481482</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -40813,10 +39711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:50</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44362.58599537037</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -40890,10 +39786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:36</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44362.58583333333</v>
       </c>
       <c r="I562" t="n">
         <v>18</v>
@@ -40957,10 +39851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:31</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44362.58577546296</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41028,10 +39920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:28</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44362.58574074074</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41103,10 +39993,8 @@
           <t>4731883891</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:25</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44362.58570601852</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41166,10 +40054,8 @@
           <t>4731883645</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:14</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44362.58557870371</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41229,10 +40115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:09</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44362.58552083333</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41292,10 +40176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:03:09</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44362.58552083333</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41371,10 +40253,8 @@
           <t>4731883282</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:57</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44362.58538194445</v>
       </c>
       <c r="I569" t="n">
         <v>35</v>
@@ -41450,10 +40330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:52</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44362.58532407408</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41517,10 +40395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:40</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44362.58518518518</v>
       </c>
       <c r="I571" t="n">
         <v>1</v>
@@ -41592,10 +40468,8 @@
           <t>4731885137</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:39</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44362.58517361111</v>
       </c>
       <c r="I572" t="n">
         <v>300</v>
@@ -41667,10 +40541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:15</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44362.58489583333</v>
       </c>
       <c r="I573" t="n">
         <v>1</v>
@@ -41738,10 +40610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:13</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44362.58487268518</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -41813,10 +40683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:05</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44362.58478009259</v>
       </c>
       <c r="I575" t="n">
         <v>1</v>
@@ -41884,10 +40752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:04</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44362.58476851852</v>
       </c>
       <c r="I576" t="n">
         <v>50</v>
@@ -41955,10 +40821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:02:00</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44362.58472222222</v>
       </c>
       <c r="I577" t="n">
         <v>1</v>
@@ -42026,10 +40890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:50</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44362.58460648148</v>
       </c>
       <c r="I578" t="n">
         <v>1</v>
@@ -42106,10 +40968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:30</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44362.584375</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42173,10 +41033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:24</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44362.58430555555</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -42250,10 +41108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:24</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44362.58430555555</v>
       </c>
       <c r="I581" t="n">
         <v>1725</v>
@@ -42313,10 +41169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:22</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44362.58428240741</v>
       </c>
       <c r="I582" t="n">
         <v>2</v>
@@ -42384,10 +41238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:20</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44362.58425925926</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -42455,10 +41307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:18</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44362.58423611111</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -42536,10 +41386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:13</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44362.58417824074</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -42603,10 +41451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:12</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44362.58416666667</v>
       </c>
       <c r="I586" t="n">
         <v>928</v>
@@ -42678,10 +41524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:11</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44362.58415509259</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -42741,10 +41585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:01:08</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44362.58412037037</v>
       </c>
       <c r="I588" t="n">
         <v>556</v>
@@ -42820,10 +41662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:56</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44362.58398148148</v>
       </c>
       <c r="I589" t="n">
         <v>2</v>
@@ -42887,10 +41727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:46</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44362.58386574074</v>
       </c>
       <c r="I590" t="n">
         <v>8</v>
@@ -42966,10 +41804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-06-15 14:00:43</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44362.58383101852</v>
       </c>
       <c r="I591" t="n">
         <v>2</v>
